--- a/xlsx/c_FishBuffData.xlsx
+++ b/xlsx/c_FishBuffData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8586FF2-0BE7-4F87-8916-F51084DF1C4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469545DE-CAB3-48B7-8FC8-93AA6AE5DD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="1575" windowWidth="21645" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2220" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -57,6 +57,39 @@
   </si>
   <si>
     <t>BuffBeSucked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被弹开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffBeSprang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【持续时间】【弹开力】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffSpeedEqual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【持续时间】【速度】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1,0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河豚技能释放时的减速
+持续时间继承河豚技能持续时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -127,6 +160,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1290,14 +1326,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="1"/>
@@ -1351,18 +1387,38 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>

--- a/xlsx/c_FishBuffData.xlsx
+++ b/xlsx/c_FishBuffData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469545DE-CAB3-48B7-8FC8-93AA6AE5DD85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A5CEF-90C0-481A-BC1B-72355A83C80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5295" yWindow="2220" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>【持续时间】【弹开力】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3,30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -90,6 +86,26 @@
   <si>
     <t>河豚技能释放时的减速
 持续时间继承河豚技能持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffShield</t>
+  </si>
+  <si>
+    <t>河豚技能释放时的无敌护盾
+持续时间继承河豚技能持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【持续时间】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1342,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1400,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1408,29 +1424,38 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>

--- a/xlsx/c_FishBuffData.xlsx
+++ b/xlsx/c_FishBuffData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A5CEF-90C0-481A-BC1B-72355A83C80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC58E5D-102D-4178-BCC8-9EBD5FBD9704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2220" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.15,30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffShield</t>
   </si>
   <si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>【持续时间】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20,130</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1416,7 +1416,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1441,16 +1441,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/xlsx/c_FishBuffData.xlsx
+++ b/xlsx/c_FishBuffData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC58E5D-102D-4178-BCC8-9EBD5FBD9704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230D8692-FD14-4DC1-821F-D31C3C8DF65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1845" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1620" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>0.20,130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffHeal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【持续时间】【回复率】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0.1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -179,6 +191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1342,7 +1355,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1453,11 +1466,22 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>

--- a/xlsx/c_FishBuffData.xlsx
+++ b/xlsx/c_FishBuffData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230D8692-FD14-4DC1-821F-D31C3C8DF65B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2076F68-E22F-4607-896B-9E85E04ACAE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1620" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.20,130</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BuffHeal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -118,6 +114,10 @@
   </si>
   <si>
     <t>5,0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.20,350</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1355,7 +1355,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1474,13 +1474,13 @@
         <v>18</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/xlsx/c_FishBuffData.xlsx
+++ b/xlsx/c_FishBuffData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2076F68-E22F-4607-896B-9E85E04ACAE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22A2E35-6BC0-4A21-9AAC-F579B0CB446F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="990" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32115" yWindow="1335" windowWidth="18705" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>0.20,350</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被水母碰到后的麻痹效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffParalysis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>【持续时间】</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -192,6 +204,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1355,7 +1376,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1364,7 +1385,7 @@
     <col min="2" max="2" width="50.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="11" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1377,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1394,7 +1415,7 @@
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1411,7 +1432,7 @@
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1428,7 +1449,7 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1445,7 +1466,7 @@
       <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1462,7 +1483,7 @@
       <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1479,16 +1500,26 @@
       <c r="D7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xlsx/c_FishBuffData.xlsx
+++ b/xlsx/c_FishBuffData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22A2E35-6BC0-4A21-9AAC-F579B0CB446F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68C5F2-9AA2-4693-9DED-DF61887594C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32115" yWindow="1335" windowWidth="18705" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="3120" windowWidth="28830" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -130,6 +130,19 @@
   </si>
   <si>
     <t>【持续时间】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃了金龟的无敌护盾
+持续时间继承河豚技能持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffShieldGold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1373,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1521,6 +1534,23 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/c_FishBuffData.xlsx
+++ b/xlsx/c_FishBuffData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68C5F2-9AA2-4693-9DED-DF61887594C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E68A4B-619E-407D-99F9-AC8B46998648}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="3120" windowWidth="28830" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="3525" windowWidth="19095" windowHeight="10830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
